--- a/URUVS/Datasheets/URUV/March/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/March/March_RecordingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF21B933-CF25-4E30-A882-FC8D03D5FD8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905FC1A3-F251-465B-BE3C-674D51CACF54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="157">
   <si>
     <t>DATE</t>
   </si>
@@ -448,42 +448,12 @@
     <t>29/03/2024</t>
   </si>
   <si>
-    <t>LANTAMPEO</t>
-  </si>
-  <si>
-    <t>29_03_2024_0740_C1_D1_LTME4</t>
-  </si>
-  <si>
-    <t>29_03_2024_0746_C12_D2_LTME6</t>
-  </si>
-  <si>
-    <t>29_03_2024_0809_CNEW_D3_LTME5</t>
-  </si>
-  <si>
     <t>BN2</t>
   </si>
   <si>
     <t>SUNNY</t>
   </si>
   <si>
-    <t>29_03_2024_1344_C12_D4_LTML6</t>
-  </si>
-  <si>
-    <t>29_03_2024_1350_C1_D5_LTMD4</t>
-  </si>
-  <si>
-    <t>29_03_2024_1358_CNEW_D6_LTML5</t>
-  </si>
-  <si>
-    <t>29_03_2024_1405_C11_D7_LTMD5</t>
-  </si>
-  <si>
-    <t>29_03_2024_1418_C5_D8_LTML6</t>
-  </si>
-  <si>
-    <t>29_03_2024_1424_C14_D9_LTMD6</t>
-  </si>
-  <si>
     <t>CLOUDY</t>
   </si>
   <si>
@@ -500,6 +470,39 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>LANTANGPEO</t>
+  </si>
+  <si>
+    <t>27_03_2024_1440_C5_D1_TMPD2</t>
+  </si>
+  <si>
+    <t>29_03_2024_0740_C1_D1_LTPE4</t>
+  </si>
+  <si>
+    <t>29_03_2024_0746_C12_D2_LTPE6</t>
+  </si>
+  <si>
+    <t>29_03_2024_0809_CNEW_D3_LTPE5</t>
+  </si>
+  <si>
+    <t>29_03_2024_1344_C12_D4_LTPL6</t>
+  </si>
+  <si>
+    <t>29_03_2024_1350_C1_D5_LTPD4</t>
+  </si>
+  <si>
+    <t>29_03_2024_1358_CNEW_D6_LTPL5</t>
+  </si>
+  <si>
+    <t>29_03_2024_1405_C11_D7_LTPD5</t>
+  </si>
+  <si>
+    <t>29_03_2024_1424_C14_D9_LTPD6</t>
+  </si>
+  <si>
+    <t>29_03_2024_1418_C5_D8_LTPL6</t>
   </si>
 </sst>
 </file>
@@ -1128,15 +1131,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
   <dimension ref="A1:BT22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="20" width="8.7265625" customWidth="1"/>
+    <col min="2" max="20" width="8.7265625" customWidth="1"/>
     <col min="21" max="24" width="8.7265625" style="1" customWidth="1"/>
     <col min="25" max="32" width="8.7265625" customWidth="1"/>
     <col min="72" max="72" width="13.90625" bestFit="1" customWidth="1"/>
@@ -1391,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="L2" s="5">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="N2" s="5">
         <v>3</v>
@@ -2326,7 +2328,7 @@
         <v>0.19</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="19"/>
@@ -2447,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="6">
-        <v>0.5395833333333333</v>
+        <v>0.53402777777777777</v>
       </c>
       <c r="H9" s="6">
         <v>0.58750000000000002</v>
@@ -2477,7 +2479,7 @@
         <v>0.19</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="19"/>
@@ -2628,7 +2630,7 @@
         <v>0.19</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="19"/>
@@ -2779,7 +2781,7 @@
         <v>0.19</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="19"/>
@@ -2930,7 +2932,7 @@
         <v>0.22</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="19"/>
@@ -3081,7 +3083,7 @@
         <v>0.22</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="19"/>
@@ -3187,7 +3189,7 @@
         <v>137</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>118</v>
@@ -3216,17 +3218,17 @@
         <v>39</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="N14" s="5">
         <v>4</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R14" s="5">
         <v>0.18</v>
@@ -3338,7 +3340,7 @@
         <v>137</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>118</v>
@@ -3367,7 +3369,7 @@
         <v>61</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="N15" s="5">
         <v>3</v>
@@ -3377,7 +3379,7 @@
         <v>129</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R15" s="5">
         <v>0.15</v>
@@ -3489,7 +3491,7 @@
         <v>137</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>118</v>
@@ -3518,7 +3520,7 @@
         <v>63</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="N16" s="5">
         <v>4</v>
@@ -3528,7 +3530,7 @@
         <v>105</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R16" s="5">
         <v>0.15</v>
@@ -3640,7 +3642,7 @@
         <v>137</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>103</v>
@@ -3669,7 +3671,7 @@
         <v>30</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="N17" s="5">
         <v>2</v>
@@ -3679,13 +3681,13 @@
         <v>112</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="R17" s="5">
         <v>0.24</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="19"/>
@@ -3791,7 +3793,7 @@
         <v>137</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>99</v>
@@ -3820,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="N18" s="5">
         <v>3</v>
@@ -3830,13 +3832,13 @@
         <v>130</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="R18" s="5">
         <v>0.26</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="19"/>
@@ -3942,7 +3944,7 @@
         <v>137</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>103</v>
@@ -3971,7 +3973,7 @@
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N19" s="5">
         <v>4</v>
@@ -3981,13 +3983,13 @@
         <v>113</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="R19" s="5">
         <v>0.26</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T19" s="5"/>
       <c r="U19" s="20"/>
@@ -4093,7 +4095,7 @@
         <v>137</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -4122,23 +4124,23 @@
         <v>20</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N20" s="5">
         <v>3</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="R20" s="5">
         <v>0.26</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T20" s="5"/>
       <c r="U20" s="20"/>
@@ -4244,7 +4246,7 @@
         <v>137</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>99</v>
@@ -4273,7 +4275,7 @@
         <v>22</v>
       </c>
       <c r="M21" s="65" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N21" s="65">
         <v>3</v>
@@ -4283,13 +4285,13 @@
         <v>128</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="R21" s="65">
         <v>0.28000000000000003</v>
       </c>
       <c r="S21" s="65" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T21" s="65"/>
       <c r="U21" s="66"/>
@@ -4350,7 +4352,7 @@
         <v>137</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>103</v>
@@ -4379,7 +4381,7 @@
         <v>30</v>
       </c>
       <c r="M22" s="65" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="N22" s="65">
         <v>2</v>
@@ -4389,13 +4391,13 @@
         <v>114</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="R22" s="65">
         <v>0.28000000000000003</v>
       </c>
       <c r="S22" s="65" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T22" s="65"/>
       <c r="U22" s="66"/>
@@ -4504,7 +4506,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>88</v>
@@ -4518,13 +4520,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D4" s="63">
         <v>0.59513888888888888</v>
